--- a/biology/Botanique/Allagoptera/Allagoptera.xlsx
+++ b/biology/Botanique/Allagoptera/Allagoptera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allagoptera est un genre de plantes de la famille des Arecaceae (les palmiers) que l'on trouve en Amérique du Sud (Brésil, Paraguay, Bolivie, et Argentine).
 </t>
@@ -511,16 +523,18 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (6 juin 2016)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (6 juin 2016) :
 Allagoptera arenaria (Gomes) Kuntze (1891)
 Allagoptera brevicalyx M.Moraes (1993)
 Allagoptera campestris (Mart.) Kuntze (1891)
 Allagoptera caudescens (Mart.) Kuntze (1891) Syn. Polyandrococos caudescens (Mart.) Barb.Rodr.
 Allagoptera leucocalyx (Drude) Kuntze (1891)
 Allagoptera robusta R.C.Martins &amp; Filg., Phytotaxa 197: 116 (2015)
-Selon ITIS      (6 juin 2016)[2] :
+Selon ITIS      (6 juin 2016) :
 Allogoptera arenaria (Gomes) O. Kuntze
 Allogoptera campstris (Martius) O. Kuntze</t>
         </is>
